--- a/soil_moisture_0.5/soil_moisture_0.5.xlsx
+++ b/soil_moisture_0.5/soil_moisture_0.5.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimg/src/opendap/HAST_leaf_node_pcb/soil_moisture_0.5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{270987E3-F1A5-364C-9F80-BEF005750798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44ED3D7-2A8F-4145-BE0A-278EB1644907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20800" yWindow="4600" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="20800" yWindow="4600" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="soil_moisture_0.5" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
   <si>
     <t>Reference</t>
   </si>
@@ -301,14 +301,17 @@
   </si>
   <si>
     <t>SHT-30 Mesh-protected Weather-proof Temperature/Humidity Sensor - 1M Cable</t>
+  </si>
+  <si>
+    <t>NB: I used the G-7 Cable glands on the SHT-30 sensor cable even though it has a diameter of 0.2"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -799,7 +802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1158,11 +1161,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1657,6 +1660,11 @@
         <v>88</v>
       </c>
     </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
